--- a/2023八月绩效.xlsx
+++ b/2023八月绩效.xlsx
@@ -1147,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
